--- a/output/Results_semantic_extraQuestions.xlsx
+++ b/output/Results_semantic_extraQuestions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="695">
   <si>
     <t>Tipo</t>
   </si>
@@ -103,12 +103,18 @@
     <t>summer salad ideas</t>
   </si>
   <si>
+    <t>Esfiha de carne vegana</t>
+  </si>
+  <si>
     <t>Gluten-free dinner ideas for celiac disease patients</t>
   </si>
   <si>
     <t>How can I prepare a low-sodium meal for heart patients?</t>
   </si>
   <si>
+    <t>I have 9min maximum to make a lunch, can you help me?</t>
+  </si>
+  <si>
     <t>I'm vegan. How can I make a bolognese?</t>
   </si>
   <si>
@@ -430,6 +436,21 @@
     <t>309887</t>
   </si>
   <si>
+    <t>21255</t>
+  </si>
+  <si>
+    <t>268511</t>
+  </si>
+  <si>
+    <t>112959</t>
+  </si>
+  <si>
+    <t>118182</t>
+  </si>
+  <si>
+    <t>189350</t>
+  </si>
+  <si>
     <t>375428</t>
   </si>
   <si>
@@ -460,6 +481,21 @@
     <t>78942</t>
   </si>
   <si>
+    <t>269400</t>
+  </si>
+  <si>
+    <t>25625</t>
+  </si>
+  <si>
+    <t>267986</t>
+  </si>
+  <si>
+    <t>107500</t>
+  </si>
+  <si>
+    <t>55560</t>
+  </si>
+  <si>
     <t>285382</t>
   </si>
   <si>
@@ -1036,6 +1072,21 @@
     <t>best of summer salad</t>
   </si>
   <si>
+    <t>carne asada  arrachera con ajo y limon a la parrilla</t>
+  </si>
+  <si>
+    <t>really good vegan spinach tofu dip  even if you hate tofu vegan</t>
+  </si>
+  <si>
+    <t>sour cream  avocado dip  vegan</t>
+  </si>
+  <si>
+    <t>mock feta cheese   vegan substitute</t>
+  </si>
+  <si>
+    <t>tacos de carnitas</t>
+  </si>
+  <si>
     <t>gluten free corn casserole</t>
   </si>
   <si>
@@ -1064,6 +1115,21 @@
   </si>
   <si>
     <t>new year s eve latkes</t>
+  </si>
+  <si>
+    <t>don t want to go to town fish sandwich longmeadow farm</t>
+  </si>
+  <si>
+    <t>now don t go  eeewww    before you try this</t>
+  </si>
+  <si>
+    <t>you can bet the farm     hamburgers from longmeadow farm</t>
+  </si>
+  <si>
+    <t>judy s egg foo yong</t>
+  </si>
+  <si>
+    <t>the ultimate deli sandwich for 8</t>
   </si>
   <si>
     <t>vegan bolognese</t>
@@ -4350,6 +4416,192 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">carne asada  arrachera con ajo y limon a la parrilla
+Recipe posted on: 2002-03-03
+Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, north-american, 5-ingredients-or-less, very-low-carbs, main-dish, beef, mexican, barbecue, easy, dietary, low-sodium, high-protein, low-carb, high-in-something, low-in-something, meat, equipment, grilling
+Description: typical mexican flank steak, marinated, then cooked rapidly at high heat, and splashed with the zing of fresh lime-que delisioso!
+This recipe takes 51 minutes to be done.
+For this recipe you will need the ingredients: 
+skirt steaks
+garlic
+olive oil
+coarse salt
+fresh lime juice
+The 8 steps to make this recipe are: 
+if necessary 
+trim steak 
+leaving some fat
+in shallow dish 
+rub steaks with garlic and oil
+marinate steaks 
+covered and chilled 
+at least 30 minutes and up to 1 day
+prepare grill
+season steaks generously with coarse salt and grill on a rack set 5 to 6 inches over glowing coals 2 to 3 minutes on each side for medium-rare
+transfer steaks to a cutting board and drizzle with lime juice
+let steaks stand 
+uncovered 
+5 to 10 minutes and with a sharp knife cut diagonally across grain into thin slices
+garnish with grilled onions 
+serve with tortillas 
+refried beans and rice
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">really good vegan spinach tofu dip  even if you hate tofu vegan
+Recipe posted on: 2007-11-28
+Tags: lactose, 15-minutes-or-less, time-to-make, course, main-ingredient, preparation, for-large-groups, appetizers, beans, vegetables, vegan, vegetarian, dips, dietary, soy-tofu, free-of-something, greens, spinach, number-of-servings
+Description: the olives really make this dip - don't omit them! :) i'm a diehard carnivore, but i was going to a potluck and wanted to bring a cheap, egg-free, dairy-free dish in case there were allergies or vegetarians there. i took about six recipes off the internet, combined them and added a few more things, and it was great! i let it sit in the fridge for two days and just re-mixed it before serving. at the potluck, there was not a single vegetarian there, and they all liked this dip. cayenne and grated carrot would probably be great in this and make it a more "traditional" spinach dip. you may want to start with less garlic if you're not a big fan.
+This recipe takes 15 minutes to be done.
+For this recipe you will need the ingredients: 
+tofu
+olive oil
+frozen chopped spinach
+black pepper
+vegetable bouillon granules
+dried basil
+garlic powder
+soy sauce
+lemon juice
+onion
+kalamata olives
+The 11 steps to make this recipe are: 
+defrost spinach and squeeze out as much liquid as you can
+drain tofu of any excess liquid
+place tofu and oil in a large bowl
+use a hand mixer on high speed to combine them until creamy
+add pepper 
+vegetable bouillon powder 
+dried basil 
+garlic powder 
+soy sauce 
+and lemon juice
+blend on high speed for 1 minute
+on low speed 
+mix in onion 
+spinach 
+and olives
+taste and adjust seasonings to your preference
+cover the bowl and place in the fridge
+let it sit for at least 8 hours for the flavours to meld 
+preferably overnight
+serve with crackers 
+bread 
+chips 
+or vegetables for dipping
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sour cream  avocado dip  vegan
+Recipe posted on: 2005-03-08
+Tags: lactose, 15-minutes-or-less, time-to-make, course, cuisine, preparation, occasion, north-american, for-large-groups, appetizers, mexican, easy, no-cook, potluck, holiday-event, vegan, vegetarian, dips, spreads, dietary, low-sodium, low-cholesterol, low-saturated-fat, low-calorie, low-carb, inexpensive, healthy-2, free-of-something, low-in-something, superbowl, to-go, equipment, small-appliance, mixer, number-of-servings, presentation, served-cold, technique
+Description: i made this up when i had an avocado that was getting too ripe and some leftover cilantro. it's good with chips or cut-up veggies, as a topping for mexican food or baked potatoes, etc. totally vegan and even my husband liked it.
+This recipe takes 10 minutes to be done.
+For this recipe you will need the ingredients: 
+soft silken tofu
+avocado
+chunky salsa
+fresh cilantro
+lime juice
+hot sauce
+salt and pepper
+The 6 steps to make this recipe are: 
+peel and pit avocado 
+put in a large mixing bowl
+add entire block of tofu and salsa
+combine ingredients using a hand mixer on medium speed for about 1 minute or until the mixture becomes smooth
+add remaining ingredients 
+mix on low speed until all ingredients are blended together
+chill for one hour and serve
+store leftovers in the fridge in an air-tight container
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mock feta cheese   vegan substitute
+Recipe posted on: 2005-04-20
+Tags: lactose, 60-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, for-large-groups, very-low-carbs, condiments-etc, beans, american, asian, easy, no-cook, refrigerator, beginner-cook, vegan, vegetarian, dietary, low-cholesterol, low-calorie, low-carb, inexpensive, soy-tofu, cooking-mixes, egg-free, free-of-something, low-in-something, equipment, number-of-servings, 3-steps-or-less, technique
+Description: i got this in my email today from the veggie table, and it is a recipe adapted from one credited to the cookbook, "how it all vegan!"  i haven't tried this one.
+This recipe takes 60 minutes to be done.
+For this recipe you will need the ingredients: 
+olive oil
+water
+red wine vinegar
+salt
+dried basil
+dried oregano
+pepper
+firm tofu
+The 2 steps to make this recipe are: 
+place everything but the tofu in the bowl and whisk together
+add tofu 
+stir 
+and let sit for at least an hour
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tacos de carnitas
+Recipe posted on: 2006-10-05
+Tags: time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, main-dish, pork, mexican, dinner-party, stove-top, meat, taste-mood, savory, equipment, 4-hours-or-less
+Description: 2001 best recipe from the san francisco chronicle. serve with avocadao slices, sour cream, and limes and of course margaritas! recipe courtesy tara duggan
+This recipe takes 195 minutes to be done.
+For this recipe you will need the ingredients: 
+pork butt
+water
+orange zest
+garlic cloves
+onions
+crushed red pepper flakes
+cinnamon sticks
+bay leaves
+oregano leaves
+kosher salt
+salt
+ground cloves
+corn tortillas
+fresh cilantro
+onion
+salsa verde
+The 16 steps to make this recipe are: 
+trim any thick fat from the outside of the pork butt
+cut the meat into 1-inch cubes
+"discard any cubes that are pure fat 
+but dont try to trim all of the fat out of the meat"
+put the pork in a large pot
+add the water the strips of orange zest 
+garlic 
+onion 
+red pepper flakes 
+cinnamon 
+bay leaves 
+oregano 
+1 1 / 2 teaspoons salt and cloves
+bring to a boil then reduce to a simmer
+skim off any scum that forms on the surface
+simmer for 1 1 / 2 hours 
+until the pork is very soft 
+adding more water if necessary to keep the meat submerged
+season with salt
+bring to a gentle boil and cook until the water has evaporated about 30 minutes
+cook a little longer to fry the meat slightly
+watch carefully to prevent burning
+remove the bay leaves and cinnamon sticks
+put the meat in a fine strainer and push gently with a wooden spoon to remove any excess fat
+discard the fat
+fold a few tablespoons of carnitas inside each tortilla and top each taco with cilantro 
+onion and salsa
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">gluten free corn casserole
 Recipe posted on: 2009-06-01
 Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, preparation, occasion, side-dishes, vegetables, easy, beginner-cook, holiday-event, kid-friendly, picnic, vegetarian, easter, dietary, christmas, thanksgiving, gluten-free, inexpensive, free-of-something, corn, to-go, 3-steps-or-less
@@ -4676,6 +4928,245 @@
 season to taste with salt and pepper
 serve warm with sour cream and smoked salmon on the side 
 if desired
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don t want to go to town fish sandwich longmeadow farm
+Recipe posted on: 2007-12-03
+Tags: 30-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, for-1-or-2, lunch, seafood, american, easy, fish, sandwiches, comfort-food, inexpensive, northeastern-united-states, freshwater-fish, whitefish, saltwater-fish, halibut, tilapia, taste-mood, number-of-servings
+Description: the day started out gray and menacing. a slight case of sleet was coming down. and a sneeze too. the farm had decided to take a break today and not bust anything terribly awful. two tractors were being fixed somewhere up north, so none of us particularly wanted to go to town to grab a sandwich, which; we quite often do on sunday at lunchtime. in fact, the fire was stoked, we were dry, and sleet is not that fun.  at least with snow you can plow, or just make snow forts. so today, i decided to make a nifty sandwich for the two of us to eat, side by side, with our feet facing the wood stove. i wanted to whip together something that   you had to lick your fingers because it was just  that delicious. also, i had to have everything on hand, right here at home, remember; we weren't going to town. of course, make this your own fish sandwich. add the cheese to the top, instead of the bottom, perhaps jalapeno cheese, use some soft bread, make the tartar sauce low _x000D_
+fat, or;  just grill some fresh fish, or lightly bread the fresh fish fillet, and bake. you might even add a bit of sliced tomato, or a bit of vegetarian bacon (especially for twissis), a big slice of onion, chopped lettuce, spinach leaves, etc. whatever you chose,  just don't go into town. you don't have to now.  note: i am sorry this disappointed the chef by having you adding salt and cayenne pepper. please, anyone that knows my recipes, if you don't care for any of the items, please don't use them. it's ok by me to make this good for you and your family and to certainly not be wasting food. i am sorry this didn't work for you, but thanks for trying it.
+This recipe takes 30 minutes to be done.
+For this recipe you will need the ingredients: 
+fish fillets
+sour cream
+mayonnaise
+pickle juice
+dill relish
+cayenne pepper
+garlic powder
+salt
+sugar
+mustard powder
+hamburger buns
+american cheese
+tomatoes
+lettuce
+The 9 steps to make this recipe are: 
+bake frozen fish fillets at 400 degrees 
+for 10 minutes 
+turn over once and bake 10 minutes more
+"watch carefully 
+dont want them to burn"
+mix up tartar sauce 
+or use what you have in fridge
+sliced cheese should be at room temperature
+toast bun in a non stick skillet until lightly grilled
+after toasted 
+place cheese on bottom of bun
+let fish fillets cool a bit as they get crunchy-ier
+put fish fillet on each sandwich bun 
+topping the fillet with tartar sauce 
+and closing bun
+bubble bubble --
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now don t go  eeewww    before you try this
+Recipe posted on: 2002-04-18
+Tags: 15-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, for-1-or-2, low-protein, healthy, 5-ingredients-or-less, breakfast, lunch, main-dish, american, easy, beginner-cook, diabetic, fall, finger-food, kid-friendly, low-fat, summer, vegan, vegetarian, dietary, one-dish-meal, low-sodium, low-cholesterol, seasonal, sandwiches, low-saturated-fat, low-calorie, comfort-food, low-carb, inexpensive, northeastern-united-states, low-in-something, taste-mood, number-of-servings, presentation
+Description: the only way to eat fresh tomatoes! in anticipation of the impending tomato harvest, i share with you a family secret. this is the reason we look forward to the end of summer, to the time when our gardens and our friends gardens are bursting with little red-skinned treasures. when i tell anyone about this, besides my brother and sister -- we learned it from mom -- and my children -- now that i've gotten them to try it -- they think i'm weird (well...yes, i am, but this isn't why). people looked at me oddly when i made this in the college cafeteria. at least i thought that was the reason. it never tasted right, though. i think the foodservice tomatoes were plastic. my husband seems to shudder if he sees me or the kids consuming this treat, but then, he hates warm peanut butter. period. won't touch it. i haven't managed to get any of my in-laws to give it a try; my husband's dad just looks at me and shakes his head. come to think of it, i get a lot of that from him. so, what is this food that most people seem to find so repulsive that they won't even consider it? i just call it exactly what it is: peanut butter and tomatoes on toast. if you're intrigued, the extremely difficult and intricate recipe follows below. if you think i'm weird, get in line. grossed out? get over it, and try it already. i thought it was pretty gross the first time i saw my mom eating it, too, but she made me take a bite, and i was hooked.
+This recipe takes 5 minutes to be done.
+For this recipe you will need the ingredients: 
+toast
+peanut butter
+tomatoes
+pepper
+salt
+The 12 steps to make this recipe are: 
+spread peanut butter on hot toast
+"concerned with calories-- you dont have to lay it on really thick 
+just make sure you can taste it"
+now 
+completely cover the toast with tomato slices
+cut sliced tomatoes in halves or quarters 
+if necessary 
+to accomplish this task
+sprinkle liberally with black pepper 
+and add just a bit of salt 
+if desired
+eat while toast is still hot
+if it gets cold 
+throw away and start over
+"well 
+id probably eat it anyway 
+but its not as good cold"
+"try it 
+youll like it"
+trust me on this-- the salty peanut butter is just wonderful with the tomatoes 
+and at least a little bit of pepper is necessary
+"i know 
+youre going eeewwwwww !"
+but if you give it a shot 
+who knows-- maybe this is how you can find your inner weirdo
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can bet the farm     hamburgers from longmeadow farm
+Recipe posted on: 2007-11-27
+Tags: 30-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, very-low-carbs, lunch, main-dish, beef, easy, dietary, seasonal, sandwiches, comfort-food, high-protein, low-carb, ground-beef, high-in-something, low-in-something, meat, taste-mood, to-go, camping, burgers
+Description: the longmeadow farm was buzzing with activity today! corn cribs were being filled to their full capacity, and tons of dust with particles were flying high over the top of the yellow barn. the alfalfa and timothy grass fields were being rolled in the distant fields by bubba. everyone was in a buzz to make sure everything was working and progressing along. such is the case this particular saturday, and to be honest here; not everything was progressing as normal. chains broke, wheels flew off tractors as if taking flight, and the farm truck hose broke, hissing and spitting like a wild snake run amok. ahhhhh, a typical saturday on the farm. these are the kinda of days that makes my dad steam like a "train whistle". in fact; my dad, really doesn't always adhere to the old saying, "patience is virtue". along about 12:30 or so in the early afternoon; after the old mower didn't start despite jerry trying to stuff a rag on the miserly 2nd hand spark plug.......and so much ether was being sprayed around the workshop to start the mower, i am sure we could of put all of the neighboring folks asleep right where they stood. my dad calmly took off his hat, scratched his head, threw his hammer down in the dirt so hard it almost bounced back and hit him in the leg, while he implored and stated at the same time, "i've had enough"! _x000D_
+although my father tends towards obtaining a bit of an angry flair from time to time from all the mishaps on that happened during any particular saturday; he does however, perk up when he knows we are having hamburgers for our "saturday lunch at the farm". _x000D_
+these are so easy to throw together, and with the addition of worcestershire sauce, a great taste and fun too. heck i even have vegan worcestershire sauce and vegan crumbles to make this great, simple burger, for my sons, bryan and mike. i sure hope your day goes better then ours did........ if not--go make your own burger...... and you can even bet the farm on it. i did!
+This recipe takes 20 minutes to be done.
+For this recipe you will need the ingredients: 
+ground beef
+worcestershire sauce
+garlic powder
+ground pepper
+kosher salt
+butter
+The 4 steps to make this recipe are: 
+combine beef 
+worcestershire and garlic powder 
+salt 
+and pepper
+shape into 4 burgers
+grill over medium heat for 15 minute or until no longer pink in center 
+turning once
+serve burgers on rolls 
+with a large white onion 
+mayonnaise and tomato
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judy s egg foo yong
+Recipe posted on: 2005-01-03
+Tags: time-to-make, course, main-ingredient, cuisine, preparation, main-dish, eggs-dairy, asian, stove-top, dietary, low-saturated-fat, low-calorie, oamc-freezer-make-ahead, low-carb, low-in-something, equipment, number-of-servings, 4-hours-or-less
+Description: this is a recipe i developed from an idea that i found in a goofy 'working woman's cookbook' that my mom gave me after my first daughter was born in 1981. i found it to be a lifesaver because we were so low on cash and i could use cheap ingredients and leftover meat. i've changed the original recipe so much that i'm not going to even give it credit, as far as naming the book. i've used just about any type of meat in this that you can imagine.  i even used leftover christmas goose one year! our favorites though are turkey and ham, but chicken is great in this as well. do this by 'feel', you don't want it to be too 'eggy' or the patties will spread too much in the pan. the sauce is really easy to double as the ingredients are all in 'ones'....one cup of broth to one tablespoon of soy sauce to one tablespoon of cornstarch to one tablespoon of water. the original recipe called for lots of canned ingredients but i use fresh when i have the time and inclination. when i do use the fresh, i parboil the bean sprouts and saute the mushrooms a bit, but don't use any oil. i suggest doubling the sauce recipe and serving this with whatever type of rice you like. i've tried doing this in a non-stick skillet with spray on oil but it just doesn't work, the patties fall apart. this freezes really well and i'm adding my tips for that. my kids have been after me to post this recipe, they must think i'm going to die soon, or something.
+This recipe takes 75 minutes to be done.
+For this recipe you will need the ingredients: 
+bean sprouts
+mushrooms
+sliced water chestnuts
+green onions
+cooked turkey
+eggs
+peanut oil
+water
+chicken bouillon cube
+soy sauce
+cornstarch
+cold water
+cooked rice
+The 23 steps to make this recipe are: 
+drain the canned veggies really well
+i remove the lids and then press 
+with the lids 
+down into the cans 
+in the sink to get as much liquid out as possible
+slice the sliced water chestnuts into thin strips
+chop up the mushrooms into 1 / 4-inch pieces
+"combine the bean sprouts 
+mushrooms 
+water chestnuts 
+green onions and whatever meat youve chosen in a mixing bowl"
+"make a well in the center and crack the eggs in there 
+then break up and scramble the eggs"
+then just mix the whole dang thing like heck 
+you should have a nice 
+eggy mixture where the eggs and other ingredients are about equal in proportion
+"too much egg and your patties will run 
+too little egg and the patties wont hold together"
+heat about a 1 / 4 cup of oil until hot but not smoking in a good 
+solid 
+frying pan
+"working in batches 
+add the egg mixture in about 1 / 4 cup amounts with a large spoon 
+patting them into circles and scooping the runny side egg mixture into the patties as you work"
+mix the egg mixture before adding to the pan as the solid ingredients tend to fall to the bottom of your mixing bowl
+check the bottoms of the patties and turn them over and cook until they become a nice 
+golden brown
+put them on a serving platter to keep warm in the oven 
+they keep warm very well for quite a while without losing quality
+repeat the above step with remaining egg mixture 
+adding extra oil as needed to the frying pan
+"the magic formula here is a good 
+hot 
+frying pan with enough oil to seal the egg mixture so it doesnt run too much"
+sauce:
+combine water 
+chicken bouillon cube and soy sauce in a pot and bring to a boil
+combine cornstarch and water and then stir that mixture into the boiling broth / soy sauce mixture until thickened
+serve the patties over steamed rice 
+with the sauce
+freezing
+this stuff freezes really well
+"wrap patties in enough foil to fit a baking sheet then stick the package in a plastic freezer bag and when youre ready to use them 
+just unwrap the package 
+reusing the foil 
+place on a baking sheet and heat at about 350f for about 15-20 minutes"
+make your rice and sauce while the patties are reheating and you have dinner in 30 minutes !
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ultimate deli sandwich for 8
+Recipe posted on: 2003-03-04
+Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, lunch, main-dish, eggs-dairy, vegetables, american, oven, easy, beginner-cook, holiday-event, picnic, cheese, dietary, one-dish-meal, sandwiches, brown-bag, independence-day, meat, brunch, superbowl, to-go, camping, equipment
+Description: have fun with this recipe-take away and add whatever you wish! you cant go wrong with this one, and it's great for picnics, hiking or a day in front of the television watching football!
+This recipe takes 60 minutes to be done.
+For this recipe you will need the ingredients: 
+bread dough
+black forest ham
+smoked chicken
+salami
+red bell peppers
+red onions
+artichoke hearts
+olive
+sliced mushrooms
+eggplant
+mozzarella cheese
+feta
+dijon mustard
+mayonnaise
+oil
+cornmeal
+The 14 steps to make this recipe are: 
+preheat your oven to 375f
+roll out your bread dough to a round 14 inches
+begin by placing your sliced ham evenly in a 7-8 inch round 
+beginning in the center of the dough
+then do the same with the peppers and onions 
+then the smoked chicken 
+now a layer of mustard or sauce 
+cheese 
+veggies 
+more meat
+really you just want a nice round stack of what-ever you like
+when your done pull the edges in 
+pressing down to compress layers and remove pockets of air
+your going to want the completed sandwich to be dense
+pinch together the dough so no open seams exists
+place seam side down on a round pie pan lightly dusted with corn meal
+lightly oil the top and bake for 35-45 minutes
+remove and let stand for 15 minutes on the pan
+you can cut and serve hot 
+or place on a wire rack and cook for another 15 minutes and serve warm 
+or cool completely
+"use any ingredients you like--this can be from all meat and cheese to totally vegan 
+its up to you"
+you can also divide the dough and make 8 individual ones as well--just mark the tops !
 The mean rating for this recipe is: No reviews
 User reviews: 
 </t>
@@ -9256,7 +9747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9293,13 +9784,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9313,13 +9804,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9333,13 +9824,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9353,13 +9844,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9373,13 +9864,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9393,13 +9884,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9413,13 +9904,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9433,13 +9924,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9453,13 +9944,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9473,13 +9964,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9493,13 +9984,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9513,13 +10004,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9533,13 +10024,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F14" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9553,13 +10044,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9573,13 +10064,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F16" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9593,13 +10084,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F17" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9613,13 +10104,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9633,13 +10124,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F19" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9653,13 +10144,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F20" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9673,13 +10164,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9693,13 +10184,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F22" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9713,13 +10204,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="F23" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9733,13 +10224,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9753,13 +10244,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9773,13 +10264,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9793,13 +10284,13 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F27" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9813,13 +10304,13 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9833,13 +10324,13 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9853,13 +10344,13 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F30" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9873,13 +10364,13 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F31" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9893,13 +10384,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9913,13 +10404,13 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9933,13 +10424,13 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F34" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9953,13 +10444,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F35" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9973,13 +10464,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F36" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9993,13 +10484,13 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F37" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10013,13 +10504,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F38" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10033,13 +10524,13 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10053,13 +10544,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F40" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -10073,13 +10564,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F41" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10093,13 +10584,13 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F42" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -10113,13 +10604,13 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10133,13 +10624,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F44" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -10153,13 +10644,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -10173,13 +10664,13 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F46" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -10193,13 +10684,13 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F47" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10213,13 +10704,13 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F48" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10233,13 +10724,13 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10253,13 +10744,13 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F50" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -10273,13 +10764,13 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F51" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10293,13 +10784,13 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F52" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -10313,13 +10804,13 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F53" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -10333,13 +10824,13 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F54" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -10353,13 +10844,13 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F55" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -10373,13 +10864,13 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -10393,13 +10884,13 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -10413,13 +10904,13 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F58" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -10433,13 +10924,13 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F59" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -10453,13 +10944,13 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -10473,13 +10964,13 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F61" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -10493,13 +10984,13 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -10513,13 +11004,13 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -10533,13 +11024,13 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F64" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -10553,13 +11044,13 @@
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="F65" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -10573,13 +11064,13 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -10593,13 +11084,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F67" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -10613,13 +11104,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F68" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -10633,13 +11124,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F69" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -10653,13 +11144,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F70" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -10673,13 +11164,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -10693,13 +11184,13 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F72" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -10713,13 +11204,13 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F73" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -10733,13 +11224,13 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="F74" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -10753,13 +11244,13 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F75" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -10773,13 +11264,13 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F76" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -10793,13 +11284,13 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F77" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -10813,13 +11304,13 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F78" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -10833,13 +11324,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -10853,13 +11344,13 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -10873,13 +11364,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -10893,13 +11384,13 @@
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -10913,13 +11404,13 @@
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F83" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -10933,13 +11424,13 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F84" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -10953,13 +11444,13 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F85" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10973,13 +11464,13 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F86" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10993,13 +11484,13 @@
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F87" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11013,13 +11504,13 @@
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E88" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11033,13 +11524,13 @@
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11053,13 +11544,13 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F90" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -11073,13 +11564,13 @@
         <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F91" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -11093,13 +11584,13 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E92" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F92" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -11113,13 +11604,13 @@
         <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="F93" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -11133,13 +11624,13 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F94" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11153,13 +11644,13 @@
         <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F95" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11173,13 +11664,13 @@
         <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F96" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11193,13 +11684,13 @@
         <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F97" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -11213,13 +11704,13 @@
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F98" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11233,13 +11724,13 @@
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E99" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F99" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11253,13 +11744,13 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E100" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F100" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11273,13 +11764,13 @@
         <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F101" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11287,19 +11778,19 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F102" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11307,19 +11798,19 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E103" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F103" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -11327,19 +11818,19 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F104" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -11347,19 +11838,19 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="F105" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -11367,19 +11858,19 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F106" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -11387,19 +11878,19 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F107" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -11407,19 +11898,19 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E108" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F108" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -11427,19 +11918,19 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E109" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F109" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -11447,19 +11938,19 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E110" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F110" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -11467,19 +11958,19 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
         <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E111" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F111" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -11487,19 +11978,19 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E112" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F112" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -11507,19 +11998,19 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E113" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F113" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -11527,19 +12018,19 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E114" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F114" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -11547,19 +12038,19 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F115" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -11567,19 +12058,19 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E116" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F116" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -11593,13 +12084,13 @@
         <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F117" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -11613,13 +12104,13 @@
         <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E118" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F118" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -11633,13 +12124,13 @@
         <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E119" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F119" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -11653,13 +12144,13 @@
         <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E120" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F120" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -11673,13 +12164,13 @@
         <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E121" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F121" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -11687,19 +12178,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E122" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F122" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -11707,19 +12198,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F123" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11727,19 +12218,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E124" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F124" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -11747,19 +12238,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E125" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F125" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11767,19 +12258,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
         <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F126" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11793,13 +12284,13 @@
         <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E127" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F127" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11813,13 +12304,13 @@
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F128" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11833,13 +12324,13 @@
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E129" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F129" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11853,13 +12344,13 @@
         <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E130" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F130" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11873,13 +12364,13 @@
         <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E131" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F131" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11893,13 +12384,13 @@
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E132" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="F132" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11913,13 +12404,13 @@
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E133" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F133" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11933,13 +12424,13 @@
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E134" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="F134" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11953,13 +12444,13 @@
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E135" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F135" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11973,13 +12464,13 @@
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E136" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -11993,13 +12484,13 @@
         <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E137" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F137" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12013,13 +12504,13 @@
         <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E138" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F138" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12033,13 +12524,13 @@
         <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E139" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F139" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12053,13 +12544,13 @@
         <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E140" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F140" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12073,13 +12564,13 @@
         <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E141" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F141" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12093,13 +12584,13 @@
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E142" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F142" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12113,13 +12604,13 @@
         <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E143" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F143" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12133,13 +12624,13 @@
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E144" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F144" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12153,13 +12644,13 @@
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E145" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F145" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12173,13 +12664,13 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E146" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="F146" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12187,19 +12678,19 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E147" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F147" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12207,19 +12698,19 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E148" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F148" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12227,19 +12718,19 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E149" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F149" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12247,19 +12738,19 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
         <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E150" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="F150" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12267,19 +12758,19 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E151" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F151" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12293,13 +12784,13 @@
         <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E152" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F152" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12313,13 +12804,13 @@
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E153" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F153" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -12333,13 +12824,13 @@
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E154" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F154" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12353,13 +12844,13 @@
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E155" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F155" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -12373,13 +12864,13 @@
         <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E156" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F156" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12387,19 +12878,19 @@
         <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E157" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F157" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12407,19 +12898,19 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E158" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F158" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12427,19 +12918,19 @@
         <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E159" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F159" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12447,19 +12938,19 @@
         <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
         <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E160" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F160" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12467,19 +12958,19 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
         <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E161" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F161" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12493,13 +12984,13 @@
         <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E162" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F162" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12513,13 +13004,13 @@
         <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E163" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="F163" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -12533,13 +13024,13 @@
         <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E164" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F164" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12553,13 +13044,13 @@
         <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E165" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="F165" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -12573,13 +13064,13 @@
         <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E166" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F166" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12587,19 +13078,19 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
         <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E167" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F167" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -12607,19 +13098,19 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E168" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="F168" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12627,19 +13118,19 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
         <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E169" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F169" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -12647,19 +13138,19 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E170" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="F170" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12667,19 +13158,19 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
         <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E171" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F171" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -12693,13 +13184,13 @@
         <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E172" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="F172" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12713,13 +13204,13 @@
         <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E173" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F173" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -12733,13 +13224,13 @@
         <v>46</v>
       </c>
       <c r="D174" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E174" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="F174" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12753,13 +13244,13 @@
         <v>46</v>
       </c>
       <c r="D175" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E175" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="F175" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12773,13 +13264,13 @@
         <v>46</v>
       </c>
       <c r="D176" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E176" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="F176" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12793,13 +13284,13 @@
         <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E177" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F177" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12813,13 +13304,13 @@
         <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E178" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F178" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -12833,13 +13324,13 @@
         <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E179" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F179" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -12853,13 +13344,13 @@
         <v>47</v>
       </c>
       <c r="D180" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E180" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F180" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12873,13 +13364,13 @@
         <v>47</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E181" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F181" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -12893,13 +13384,13 @@
         <v>48</v>
       </c>
       <c r="D182" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E182" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="F182" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -12913,13 +13404,13 @@
         <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E183" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="F183" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -12933,13 +13424,13 @@
         <v>48</v>
       </c>
       <c r="D184" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E184" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F184" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12953,13 +13444,13 @@
         <v>48</v>
       </c>
       <c r="D185" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E185" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F185" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -12973,13 +13464,13 @@
         <v>48</v>
       </c>
       <c r="D186" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E186" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="F186" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12993,13 +13484,13 @@
         <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E187" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="F187" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -13013,13 +13504,13 @@
         <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E188" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F188" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -13033,13 +13524,13 @@
         <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E189" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F189" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13053,13 +13544,13 @@
         <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E190" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F190" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13073,13 +13564,13 @@
         <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E191" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="F191" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13087,19 +13578,19 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
         <v>50</v>
       </c>
       <c r="D192" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E192" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="F192" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13107,19 +13598,19 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
         <v>50</v>
       </c>
       <c r="D193" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E193" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="F193" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -13127,19 +13618,19 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
         <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E194" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="F194" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -13147,19 +13638,19 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
         <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E195" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="F195" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -13167,19 +13658,19 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
         <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E196" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="F196" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -13193,13 +13684,13 @@
         <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E197" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F197" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -13213,13 +13704,13 @@
         <v>51</v>
       </c>
       <c r="D198" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E198" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="F198" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -13233,13 +13724,13 @@
         <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E199" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F199" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13253,13 +13744,13 @@
         <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="E200" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="F200" t="s">
-        <v>617</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -13273,13 +13764,13 @@
         <v>51</v>
       </c>
       <c r="D201" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E201" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="F201" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13293,13 +13784,13 @@
         <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E202" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="F202" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -13313,13 +13804,13 @@
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E203" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F203" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -13333,13 +13824,13 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E204" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F204" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -13353,13 +13844,13 @@
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E205" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F205" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -13373,13 +13864,213 @@
         <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E206" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F206" t="s">
-        <v>662</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" t="s">
+        <v>260</v>
+      </c>
+      <c r="E207" t="s">
+        <v>472</v>
+      </c>
+      <c r="F207" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>53</v>
+      </c>
+      <c r="D208" t="s">
+        <v>261</v>
+      </c>
+      <c r="E208" t="s">
+        <v>473</v>
+      </c>
+      <c r="F208" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>53</v>
+      </c>
+      <c r="D209" t="s">
+        <v>262</v>
+      </c>
+      <c r="E209" t="s">
+        <v>474</v>
+      </c>
+      <c r="F209" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>53</v>
+      </c>
+      <c r="D210" t="s">
+        <v>223</v>
+      </c>
+      <c r="E210" t="s">
+        <v>435</v>
+      </c>
+      <c r="F210" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>53</v>
+      </c>
+      <c r="D211" t="s">
+        <v>263</v>
+      </c>
+      <c r="E211" t="s">
+        <v>475</v>
+      </c>
+      <c r="F211" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" t="s">
+        <v>264</v>
+      </c>
+      <c r="E212" t="s">
+        <v>476</v>
+      </c>
+      <c r="F212" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" t="s">
+        <v>265</v>
+      </c>
+      <c r="E213" t="s">
+        <v>477</v>
+      </c>
+      <c r="F213" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" t="s">
+        <v>266</v>
+      </c>
+      <c r="E214" t="s">
+        <v>478</v>
+      </c>
+      <c r="F214" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" t="s">
+        <v>267</v>
+      </c>
+      <c r="E215" t="s">
+        <v>479</v>
+      </c>
+      <c r="F215" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" t="s">
+        <v>268</v>
+      </c>
+      <c r="E216" t="s">
+        <v>480</v>
+      </c>
+      <c r="F216" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
